--- a/projectFor3Lab/New_Table3.xlsx
+++ b/projectFor3Lab/New_Table3.xlsx
@@ -114,19 +114,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>510.0</v>
+        <v>390.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>988.0</v>
+        <v>940.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>122.0</v>
+        <v>145.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>2553.0</v>
+        <v>2709.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>85.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,19 +134,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>677.0</v>
+        <v>703.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>988.0</v>
+        <v>940.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>152.0</v>
+        <v>140.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>2735.0</v>
+        <v>3245.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>86.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="5">
@@ -154,19 +154,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1229.0</v>
+        <v>1306.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>988.0</v>
+        <v>940.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>204.0</v>
+        <v>190.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>2411.0</v>
+        <v>2092.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>85.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="6">
@@ -174,19 +174,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2337.0</v>
+        <v>2372.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>988.0</v>
+        <v>940.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>436.0</v>
+        <v>301.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>2427.0</v>
+        <v>2626.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>82.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="7">
@@ -194,19 +194,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>3233.0</v>
+        <v>2830.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>988.0</v>
+        <v>940.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>465.0</v>
+        <v>306.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>2501.0</v>
+        <v>2171.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>196.0</v>
+        <v>67.0</v>
       </c>
     </row>
   </sheetData>

--- a/projectFor3Lab/New_Table3.xlsx
+++ b/projectFor3Lab/New_Table3.xlsx
@@ -114,19 +114,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>390.0</v>
+        <v>374.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>940.0</v>
+        <v>828.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>145.0</v>
+        <v>133.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>2709.0</v>
+        <v>2494.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>74.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,19 +134,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>703.0</v>
+        <v>686.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>940.0</v>
+        <v>828.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>140.0</v>
+        <v>296.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>3245.0</v>
+        <v>2088.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>74.0</v>
+        <v>166.0</v>
       </c>
     </row>
     <row r="5">
@@ -154,19 +154,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1306.0</v>
+        <v>1305.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>940.0</v>
+        <v>828.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>190.0</v>
+        <v>382.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>2092.0</v>
+        <v>2814.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>64.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="6">
@@ -174,19 +174,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2372.0</v>
+        <v>2500.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>940.0</v>
+        <v>828.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>301.0</v>
+        <v>473.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>2626.0</v>
+        <v>2685.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>70.0</v>
+        <v>61.0</v>
       </c>
     </row>
     <row r="7">
@@ -194,19 +194,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>2830.0</v>
+        <v>3082.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>940.0</v>
+        <v>828.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>306.0</v>
+        <v>562.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>2171.0</v>
+        <v>2683.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>67.0</v>
+        <v>61.0</v>
       </c>
     </row>
   </sheetData>

--- a/projectFor3Lab/New_Table3.xlsx
+++ b/projectFor3Lab/New_Table3.xlsx
@@ -114,19 +114,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>374.0</v>
+        <v>398.0</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>828.0</v>
+        <v>546.0</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>133.0</v>
+        <v>158.0</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>2494.0</v>
+        <v>1687.0</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>64.0</v>
+        <v>88.0</v>
       </c>
     </row>
     <row r="4">
@@ -134,19 +134,19 @@
         <v>6</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>686.0</v>
+        <v>636.0</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>828.0</v>
+        <v>546.0</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>296.0</v>
+        <v>90.0</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>2088.0</v>
+        <v>1814.0</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>166.0</v>
+        <v>64.0</v>
       </c>
     </row>
     <row r="5">
@@ -154,19 +154,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>1305.0</v>
+        <v>1110.0</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>828.0</v>
+        <v>546.0</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>382.0</v>
+        <v>118.0</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>2814.0</v>
+        <v>1893.0</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>171.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="6">
@@ -174,19 +174,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>2500.0</v>
+        <v>2099.0</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>828.0</v>
+        <v>546.0</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>473.0</v>
+        <v>164.0</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>2685.0</v>
+        <v>1768.0</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>61.0</v>
+        <v>165.0</v>
       </c>
     </row>
     <row r="7">
@@ -194,19 +194,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>3082.0</v>
+        <v>3267.0</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>828.0</v>
+        <v>546.0</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>562.0</v>
+        <v>196.0</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>2683.0</v>
+        <v>2047.0</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>61.0</v>
+        <v>175.0</v>
       </c>
     </row>
   </sheetData>
